--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2292662.519255345</v>
+        <v>2290410.439544135</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>110.1842403900304</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>108.9812949757285</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>94.57983363107971</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>257.4905091903025</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>239.1296984349955</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>36.95558184798671</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>32.24238685723913</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>73.76697517901985</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>323.4624061283608</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>97.18111948505729</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>141.4278077225159</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>285.212395222097</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784709</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>18.70843787977307</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784699</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503986</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>42.53134576113764</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187882</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428209</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>19.91555826189102</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458268</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634786</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>62.14989839348735</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888319</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179031</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>213.3849150459366</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>73.93222849083782</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>20.88994825141761</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704672982</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>83.8728463917182</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,10 +4195,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>150.672680124696</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4331,13 +4331,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.849394875187</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.887005818185</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218343</v>
@@ -4513,25 +4513,25 @@
         <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>469.1096982204634</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.887005818185</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>934.567370137326</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477183</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2767.792255586147</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2436.729368242576</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2083.960712972462</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1710.494954711382</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1320.35562273557</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>846.3749096777597</v>
+        <v>99.08018396474822</v>
       </c>
       <c r="C7" t="n">
-        <v>677.4387267498528</v>
+        <v>99.08018396474822</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>99.08018396474822</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>99.08018396474822</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>99.08018396474822</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962276</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.645724237293</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596501</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588477</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886951</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068846</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596431</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181838</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>846.3749096777597</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>846.3749096777597</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>846.3749096777597</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>846.3749096777597</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V7" t="n">
-        <v>846.3749096777597</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W7" t="n">
-        <v>846.3749096777597</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="X7" t="n">
-        <v>846.3749096777597</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.3749096777597</v>
+        <v>99.08018396474822</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.241091287689</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.278574347278</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.012875740527</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E8" t="n">
-        <v>846.2246231422828</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>435.2387183526752</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927148</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927148</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883005</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883005</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612891</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.840931351811</v>
+        <v>2290.081055314719</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.840931351811</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228028</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031498</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158148</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>692.8974549201664</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>523.9612719922595</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>523.9612719922595</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962276</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.645724237293</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596501</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588477</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886951</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068846</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596431</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181838</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181838</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181838</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181838</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181838</v>
+        <v>354.6054449393521</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201664</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>692.8974549201664</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,34 +5054,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998291</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192633</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5297,25 +5297,25 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951537</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168628</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273909</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273909</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,25 +5650,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,7 +5744,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,22 +5768,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>113.9333885650335</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F22" t="n">
-        <v>113.9333885650335</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,19 +6060,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
         <v>949.9304447718132</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452622</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718139</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.50206557031</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C28" t="n">
-        <v>695.50206557031</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D28" t="n">
-        <v>695.50206557031</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>547.5889719879169</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138402</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.50206557031</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192895</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111743</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075833</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6485,28 +6485,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191923</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403302</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266882</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>700.7543264856228</v>
       </c>
     </row>
     <row r="32">
@@ -6689,22 +6689,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>197.004324229773</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>197.004324229773</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>197.004324229773</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.052681478292</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038306</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797706</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>138.4949402405069</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659049</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194177</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>145.6085800303778</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>83.2711496294439</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>205.844576940154</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194268</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>5.199738306158224</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>119.4047645948063</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194592</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>202.6501519448728</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228708</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>135.850318211895</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821175.3108852893</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26314,25 @@
         <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="I2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675042</v>
@@ -26341,19 +26341,19 @@
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807356</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972769</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25168002746068e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,31 +26418,31 @@
         <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405272</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405266</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186726</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186728</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="H4" t="n">
+        <v>14826.69604186734</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14826.69604186734</v>
+      </c>
+      <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="I4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14826.69604186745</v>
-      </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26470,10 +26470,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-914494.1029948262</v>
       </c>
       <c r="C6" t="n">
-        <v>414250.6427327679</v>
+        <v>414250.6427327665</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.642732767</v>
+        <v>414250.6427327665</v>
       </c>
       <c r="E6" t="n">
-        <v>163998.2620943738</v>
+        <v>163963.5241689387</v>
       </c>
       <c r="F6" t="n">
-        <v>489410.7239017297</v>
+        <v>489375.985976294</v>
       </c>
       <c r="G6" t="n">
-        <v>489410.7239017297</v>
+        <v>489375.9859762943</v>
       </c>
       <c r="H6" t="n">
-        <v>489410.7239017301</v>
+        <v>489375.985976294</v>
       </c>
       <c r="I6" t="n">
-        <v>489410.7239017297</v>
+        <v>489375.9859762941</v>
       </c>
       <c r="J6" t="n">
-        <v>271879.5215044529</v>
+        <v>271844.7835790166</v>
       </c>
       <c r="K6" t="n">
-        <v>489410.7239017298</v>
+        <v>489375.985976294</v>
       </c>
       <c r="L6" t="n">
-        <v>489410.7239017292</v>
+        <v>489375.9859762941</v>
       </c>
       <c r="M6" t="n">
-        <v>404355.6959662178</v>
+        <v>404320.9580407824</v>
       </c>
       <c r="N6" t="n">
-        <v>489410.7239017298</v>
+        <v>489375.985976294</v>
       </c>
       <c r="O6" t="n">
-        <v>489410.7239017296</v>
+        <v>489375.9859762939</v>
       </c>
       <c r="P6" t="n">
-        <v>489410.7239017299</v>
+        <v>489375.985976294</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567694e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26759,10 +26759,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26805,22 +26805,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483764</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>271.7461296822314</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>277.2566436803251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>72.66698746754813</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27585,16 +27585,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>28.7213290153104</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>11.86547352390645</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.2823568080669</v>
       </c>
     </row>
     <row r="6">
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.7834214017891</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>15.16517749102753</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>87.45931952509261</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>272.5499811934117</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>5.006154924053305</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>1.310603114494029</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,13 +28087,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28144,16 +28144,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.880360694736612e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.607718096583367e-12</v>
+        <v>-1.105823316955884e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28615,10 +28615,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-1.105823316955884e-14</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.956040846537156e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.461131202646</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,7 +31993,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067235</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32072,22 +32072,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>295.3955842839422</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338201</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32309,16 +32309,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>398.1179220955532</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32336,7 +32336,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32482,7 +32482,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159423</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460029</v>
@@ -32546,16 +32546,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32573,7 +32573,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>506.566534435233</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963292</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071782</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067262</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>490.5075832355691</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862118</v>
+        <v>395.1848490935914</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>232.153703594058</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.9421752903428</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996669</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286435</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.123718484038</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230781</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567571</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106919</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014208</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597927</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.9421752903428</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996669</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286435</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.123718484038</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230781</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567571</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106919</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014208</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,7 +35641,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317594</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>157.5541453095832</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394595</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998997</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>259.5635423156791</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132147</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>261.348781916455</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238449</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236320278</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>351.9532034556949</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>253.0508151715731</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967203964</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899088</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326294959</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
